--- a/Power Supply - PCB Designs/DCDC_parts_names_map.xlsx
+++ b/Power Supply - PCB Designs/DCDC_parts_names_map.xlsx
@@ -1343,8 +1343,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93084fde61c5736dc6231ee56a44863b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a01e0dcc2447f984acacbe7761950dc3" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9581ac75ae7128fb0aee1b01c6681c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5bbf134785ad3678c0c9989435db9dca" ns2:_="">
     <xsd:import namespace="2bbfcddc-9728-4227-8e06-a5558deb0e17"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1356,6 +1356,11 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1384,6 +1389,35 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1502,7 +1536,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E44E76-3ED9-4BFB-B778-80C79A23021E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{094B35E6-92EF-454E-BFBD-661BE8083C34}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
